--- a/spreadsheets/1. initial sizing.xlsx
+++ b/spreadsheets/1. initial sizing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoff\Downloads\Compressed\Spreadsheets-20200107T090002Z-001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\KENYA ONE PROJECT\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53137C2D-F0C9-4A3B-A880-32C95654CC7C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490B8DE5-99F2-434C-8A1C-84B107FD896E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Analysis" sheetId="8" r:id="rId1"/>
@@ -31,6 +31,12 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -8775,7 +8781,25 @@
     <cellStyle name="Title" xfId="6" builtinId="15"/>
     <cellStyle name="Total" xfId="8" builtinId="25"/>
   </cellStyles>
-  <dxfs count="158">
+  <dxfs count="159">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -28537,10 +28561,10 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table28" displayName="Table28" ref="I15:L29" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" headerRowDxfId="157" dataDxfId="156"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" headerRowDxfId="155" dataDxfId="154"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" headerRowDxfId="158" dataDxfId="157"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" headerRowDxfId="156" dataDxfId="155"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4" headerRowDxfId="153" dataDxfId="152" headerRowCellStyle="Currency" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4" headerRowDxfId="154" dataDxfId="153" headerRowCellStyle="Currency" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -28557,7 +28581,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="MTOW ="/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="."/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="5850" dataDxfId="118"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="5850" dataDxfId="119"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="lbs"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -28568,7 +28592,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table1" displayName="Table1" ref="A10:C11" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Column2" headerRowDxfId="117" dataDxfId="116"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Column2" headerRowDxfId="118" dataDxfId="117"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -28583,7 +28607,7 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name=" Vmax   " dataDxfId="115"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name=" Vmax   " dataDxfId="116"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="170"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="knots"/>
   </tableColumns>
@@ -28599,7 +28623,7 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="STO" dataDxfId="114"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="STO" dataDxfId="115"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="1500"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="ft"/>
   </tableColumns>
@@ -28608,15 +28632,15 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table4" displayName="Table4" ref="F11:H12" totalsRowShown="0" headerRowDxfId="113">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table4" displayName="Table4" ref="F11:H12" totalsRowShown="0" headerRowDxfId="114">
   <autoFilter ref="F11:H12" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="ROC" dataDxfId="112"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="1600" dataDxfId="111"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="ROC" dataDxfId="113"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="1600" dataDxfId="112"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="fpm"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -28631,7 +28655,7 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="ceiling" dataDxfId="110"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="ceiling" dataDxfId="111"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="18000"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="ft"/>
   </tableColumns>
@@ -28648,7 +28672,7 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="Column2">
       <calculatedColumnFormula>0.5*$B$2*$B$10*($B$11*1.688)^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="Column3" headerRowDxfId="109" dataDxfId="108">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="Column3" headerRowDxfId="110" dataDxfId="109">
       <calculatedColumnFormula>L3+2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="Column4">
@@ -28684,7 +28708,7 @@
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table17" displayName="Table17" ref="A2:C6" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="Column1" dataDxfId="107"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="Column1" dataDxfId="108"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="Column3"/>
   </tableColumns>
@@ -28693,40 +28717,40 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table26" displayName="Table26" ref="A87:H103" headerRowCount="0" totalsRowShown="0" headerRowDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table26" displayName="Table26" ref="A87:H103" headerRowCount="0" totalsRowShown="0" headerRowDxfId="107">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="Column2" headerRowDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="Column3" headerRowDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="Column4" headerRowDxfId="103"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="Column5" headerRowDxfId="102"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" name="Column6" headerRowDxfId="101"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" name="Column7" headerRowDxfId="100"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1200-000008000000}" name="Column8" headerRowDxfId="99" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="Column2" headerRowDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="Column3" headerRowDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="Column4" headerRowDxfId="104"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="Column5" headerRowDxfId="103"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" name="Column6" headerRowDxfId="102"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" name="Column7" headerRowDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1200-000008000000}" name="Column8" headerRowDxfId="100" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table29" displayName="Table29" ref="S31:X53" headerRowCount="0" totalsRowShown="0" headerRowDxfId="151">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table29" displayName="Table29" ref="S31:X53" headerRowCount="0" totalsRowShown="0" headerRowDxfId="152">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1">
       <calculatedColumnFormula>M30+0.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Column2" dataDxfId="150">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Column2" dataDxfId="151">
       <calculatedColumnFormula>$C$32+($C$33*M31)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Column3" dataDxfId="149">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Column3" dataDxfId="150">
       <calculatedColumnFormula>$C$32</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Column4" headerRowDxfId="148" dataDxfId="147">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Column4" headerRowDxfId="149" dataDxfId="148">
       <calculatedColumnFormula>$C$34*M31</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Column5" headerRowDxfId="146" dataDxfId="145">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Column5" headerRowDxfId="147" dataDxfId="146">
       <calculatedColumnFormula>$C$35*M31</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Column6" headerRowDxfId="144" dataDxfId="143">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Column6" headerRowDxfId="145" dataDxfId="144">
       <calculatedColumnFormula>$C$36*M31</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -28735,12 +28759,12 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table27" displayName="Table27" ref="K94:N103" headerRowCount="0" totalsRowShown="0" headerRowDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table27" displayName="Table27" ref="K94:N103" headerRowCount="0" totalsRowShown="0" headerRowDxfId="98">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="Column1" headerRowDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="Column2" headerRowDxfId="95" dataDxfId="94"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="Column3" headerRowDxfId="93"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="Column4" headerRowDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="Column1" headerRowDxfId="97"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="Column2" headerRowDxfId="96" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="Column3" headerRowDxfId="94"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="Column4" headerRowDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -28749,8 +28773,8 @@
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table15" displayName="Table15" ref="A5:C29" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="Column1" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="Column2" headerRowDxfId="90"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="Column1" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="Column2" headerRowDxfId="91"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -28758,24 +28782,24 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Table20" displayName="Table20" ref="A3:P21" headerRowCount="0" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Table20" displayName="Table20" ref="A3:P21" headerRowCount="0" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="Column1" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="Column2" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="Column3" headerRowDxfId="85" dataDxfId="84"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="Column4" headerRowDxfId="83" dataDxfId="82"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="Column5" dataDxfId="81"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1500-000006000000}" name="Column6" dataDxfId="80"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1500-000007000000}" name="Column7" headerRowDxfId="79" dataDxfId="78"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1500-000008000000}" name="Column8" headerRowDxfId="77" dataDxfId="76"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1500-000009000000}" name="Column9" headerRowDxfId="75" dataDxfId="74"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1500-00000A000000}" name="Column10" headerRowDxfId="73" dataDxfId="72"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1500-00000B000000}" name="Column11" headerRowDxfId="71" dataDxfId="70"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1500-00000C000000}" name="Column12" headerRowDxfId="69"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1500-000010000000}" name="Column16" headerRowDxfId="68"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1500-00000D000000}" name="Column13" headerRowDxfId="67" dataDxfId="66"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1500-00000E000000}" name="Column14" dataDxfId="65"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1500-00000F000000}" name="Column15" headerRowDxfId="64" dataDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="Column1" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="Column2" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="Column3" headerRowDxfId="86" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="Column4" headerRowDxfId="84" dataDxfId="83"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="Column5" dataDxfId="82"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1500-000006000000}" name="Column6" dataDxfId="81"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1500-000007000000}" name="Column7" headerRowDxfId="80" dataDxfId="79"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1500-000008000000}" name="Column8" headerRowDxfId="78" dataDxfId="77"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1500-000009000000}" name="Column9" headerRowDxfId="76" dataDxfId="75"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1500-00000A000000}" name="Column10" headerRowDxfId="74" dataDxfId="73"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-1500-00000B000000}" name="Column11" headerRowDxfId="72" dataDxfId="71"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1500-00000C000000}" name="Column12" headerRowDxfId="70"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-1500-000010000000}" name="Column16" headerRowDxfId="69"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1500-00000D000000}" name="Column13" headerRowDxfId="68" dataDxfId="67"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-1500-00000E000000}" name="Column14" dataDxfId="66"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-1500-00000F000000}" name="Column15" headerRowDxfId="65" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -28784,12 +28808,12 @@
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Table22" displayName="Table22" ref="K22:O26" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="Column1" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="Column1" dataDxfId="63"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="Column2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="Column5" dataDxfId="61" dataCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="Column5" dataDxfId="62" dataCellStyle="Percent">
       <calculatedColumnFormula>Table22[[#This Row],[Column2]]/Table9[[#Headers],[5850]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="Column3" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="Column3" dataDxfId="61"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="Column4">
       <calculatedColumnFormula>L22*N22</calculatedColumnFormula>
     </tableColumn>
@@ -28801,10 +28825,10 @@
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Table23" displayName="Table23" ref="J27:O38" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="Column1" headerRowDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="Column1" headerRowDxfId="60"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="Column3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1700-000006000000}" name="Column6" dataDxfId="58">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1700-000006000000}" name="Column6" dataDxfId="59">
       <calculatedColumnFormula>Table23[[#This Row],[Column3]]/Table9[[#Headers],[5850]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-1700-000004000000}" name="Column4"/>
@@ -28815,19 +28839,19 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Table10" displayName="Table10" ref="H3:P6" headerRowCount="0" totalsRowShown="0" headerRowDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Table10" displayName="Table10" ref="H3:P6" headerRowCount="0" totalsRowShown="0" headerRowDxfId="58">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="Column1" headerRowDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="Column2" headerRowDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="Column3" headerRowDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="Column4" headerRowDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1800-000005000000}" name="Column5" headerRowDxfId="52">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="Column1" headerRowDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="Column2" headerRowDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="Column3" headerRowDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="Column4" headerRowDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1800-000005000000}" name="Column5" headerRowDxfId="53">
       <calculatedColumnFormula>((K4-0)/(0-J4))*57.3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1800-000006000000}" name="Column6" headerRowDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1800-000007000000}" name="Column7" headerRowDxfId="50"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1800-000008000000}" name="Column8" headerRowDxfId="49"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1800-000009000000}" name="Column9" headerRowDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1800-000006000000}" name="Column6" headerRowDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1800-000007000000}" name="Column7" headerRowDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1800-000008000000}" name="Column8" headerRowDxfId="50"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1800-000009000000}" name="Column9" headerRowDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -28836,8 +28860,8 @@
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF19000000}" name="Table12" displayName="Table12" ref="A4:C17" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1900-000001000000}" name="Column1" headerRowDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1900-000002000000}" name="Column2" headerRowDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1900-000001000000}" name="Column1" headerRowDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1900-000002000000}" name="Column2" headerRowDxfId="47"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-1900-000003000000}" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
@@ -28847,8 +28871,8 @@
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF1A000000}" name="Table13" displayName="Table13" ref="A20:C33" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1A00-000001000000}" name="Column1" headerRowDxfId="45" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1A00-000002000000}" name="Column2" headerRowDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1A00-000001000000}" name="Column1" headerRowDxfId="46" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1A00-000002000000}" name="Column2" headerRowDxfId="44"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-1A00-000003000000}" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -28856,10 +28880,10 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF1B000000}" name="Table14" displayName="Table14" ref="E4:F8" headerRowCount="0" totalsRowShown="0" headerRowDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF1B000000}" name="Table14" displayName="Table14" ref="E4:F8" headerRowCount="0" totalsRowShown="0" headerRowDxfId="43">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1B00-000001000000}" name="Column1" headerRowDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1B00-000002000000}" name="Column2" headerRowDxfId="40" dataDxfId="39" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1B00-000001000000}" name="Column1" headerRowDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1B00-000002000000}" name="Column2" headerRowDxfId="41" dataDxfId="40" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -28876,69 +28900,70 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table30" displayName="Table30" ref="J57:M63" headerRowCount="0" totalsRowShown="0" headerRowDxfId="142" headerRowBorderDxfId="141" headerRowCellStyle="Heading 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table30" displayName="Table30" ref="J57:M63" headerRowCount="0" totalsRowShown="0" headerRowDxfId="143" headerRowBorderDxfId="142" headerRowCellStyle="Heading 2">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Column1" headerRowDxfId="140" headerRowCellStyle="Heading 2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Column2" headerRowDxfId="139" dataDxfId="138" headerRowCellStyle="Heading 2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Column3" headerRowDxfId="137" headerRowCellStyle="Heading 2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Column4" headerRowDxfId="136" headerRowCellStyle="Heading 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Column1" headerRowDxfId="141" headerRowCellStyle="Heading 2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Column2" headerRowDxfId="140" dataDxfId="139" headerRowCellStyle="Heading 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Column3" headerRowDxfId="138" headerRowCellStyle="Heading 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Column4" headerRowDxfId="137" headerRowCellStyle="Heading 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF1D000000}" name="Table21" displayName="Table21" ref="I10:M18" headerRowCount="0" totalsRowShown="0" headerRowDxfId="38">
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF1D000000}" name="Table21" displayName="Table21" ref="I10:N18" headerRowCount="0" totalsRowShown="0" headerRowDxfId="39">
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1D00-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1D00-000002000000}" name="Column2" headerRowDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1D00-000003000000}" name="Column3" headerRowDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1D00-000004000000}" name="Column4" headerRowDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1D00-000002000000}" name="Column2" headerRowDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1D00-000003000000}" name="Column3" headerRowDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1D00-000004000000}" name="Column4" headerRowDxfId="36"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-1D00-000005000000}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{9354BD6D-1930-46B7-8A0C-2934D3CF3026}" name="Column6" headerRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF1E000000}" name="Table19" displayName="Table19" ref="E9:F12" headerRowCount="0" totalsRowShown="0" headerRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF1E000000}" name="Table19" displayName="Table19" ref="E9:F12" headerRowCount="0" totalsRowShown="0" headerRowDxfId="35">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1E00-000001000000}" name="Column1" headerRowDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1E00-000002000000}" name="Column2" headerRowDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1E00-000001000000}" name="Column1" headerRowDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1E00-000002000000}" name="Column2" headerRowDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF1F000000}" name="Table25" displayName="Table25" ref="K23:M33" headerRowCount="0" totalsRowShown="0" headerRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF1F000000}" name="Table25" displayName="Table25" ref="K23:M33" headerRowCount="0" totalsRowShown="0" headerRowDxfId="32">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1F00-000001000000}" name="Column1" headerRowDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1F00-000002000000}" name="Column2" headerRowDxfId="29" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1F00-000003000000}" name="Column3" headerRowDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1F00-000001000000}" name="Column1" headerRowDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1F00-000002000000}" name="Column2" headerRowDxfId="30" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1F00-000003000000}" name="Column3" headerRowDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF20000000}" name="Table24" displayName="Table24" ref="A3:E15" headerRowCount="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF20000000}" name="Table24" displayName="Table24" ref="A3:E15" headerRowCount="0" headerRowDxfId="27">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2000-000001000000}" name="Column1" totalsRowLabel="Total" headerRowDxfId="25" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2000-000002000000}" name="Column2" headerRowDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2000-000003000000}" name="Column3" headerRowDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2000-000004000000}" name="Column4" headerRowDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2000-000005000000}" name="Column5" totalsRowFunction="count" headerRowDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2000-000001000000}" name="Column1" totalsRowLabel="Total" headerRowDxfId="26" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2000-000002000000}" name="Column2" headerRowDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2000-000003000000}" name="Column3" headerRowDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2000-000004000000}" name="Column4" headerRowDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2000-000005000000}" name="Column5" totalsRowFunction="count" headerRowDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{00000000-000C-0000-FFFF-FFFF21000000}" name="Table34" displayName="Table34" ref="G3:I7" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{00000000-000C-0000-FFFF-FFFF21000000}" name="Table34" displayName="Table34" ref="G3:I7" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="19">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2100-000001000000}" name="Column1" headerRowDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2100-000002000000}" name="Column2" headerRowDxfId="16" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2100-000001000000}" name="Column1" headerRowDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2100-000002000000}" name="Column2" headerRowDxfId="17" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-2100-000003000000}" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -28948,8 +28973,8 @@
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{00000000-000C-0000-FFFF-FFFF22000000}" name="Table35" displayName="Table35" ref="G10:I13" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2200-000001000000}" name="Column1" headerRowDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2200-000002000000}" name="Column2" headerRowDxfId="13" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2200-000001000000}" name="Column1" headerRowDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2200-000002000000}" name="Column2" headerRowDxfId="14" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-2200-000003000000}" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -28959,8 +28984,8 @@
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{00000000-000C-0000-FFFF-FFFF23000000}" name="Table36" displayName="Table36" ref="K3:M13" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2300-000001000000}" name="Column1" headerRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2300-000002000000}" name="Column2" headerRowDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2300-000001000000}" name="Column1" headerRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2300-000002000000}" name="Column2" headerRowDxfId="11"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-2300-000003000000}" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -28970,7 +28995,7 @@
 <file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{00000000-000C-0000-FFFF-FFFF24000000}" name="Table37" displayName="Table37" ref="O4:Q9" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2400-000001000000}" name="Column1" headerRowDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2400-000001000000}" name="Column1" headerRowDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-2400-000002000000}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-2400-000003000000}" name="Column3"/>
   </tableColumns>
@@ -28979,12 +29004,12 @@
 </file>
 
 <file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{00000000-000C-0000-FFFF-FFFF25000000}" name="Table38" displayName="Table38" ref="F4:I30" headerRowCount="0" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{00000000-000C-0000-FFFF-FFFF25000000}" name="Table38" displayName="Table38" ref="F4:I30" headerRowCount="0" totalsRowShown="0" headerRowDxfId="9">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2500-000001000000}" name="Column1" headerRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2500-000002000000}" name="Column2" headerRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2500-000003000000}" name="Column3" headerRowDxfId="5" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2500-000004000000}" name="Column4" headerRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2500-000001000000}" name="Column1" headerRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2500-000002000000}" name="Column2" headerRowDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2500-000003000000}" name="Column3" headerRowDxfId="6" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2500-000004000000}" name="Column4" headerRowDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -28993,8 +29018,8 @@
 <file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{00000000-000C-0000-FFFF-FFFF26000000}" name="Table39" displayName="Table39" ref="A2:C7" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2600-000001000000}" name="Column1" headerRowDxfId="2" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2600-000002000000}" name="Column2" headerRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2600-000001000000}" name="Column1" headerRowDxfId="3" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2600-000002000000}" name="Column2" headerRowDxfId="1"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-2600-000003000000}" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -29007,8 +29032,8 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Column4" dataDxfId="135"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Column5" dataDxfId="134"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Column4" dataDxfId="136"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Column5" dataDxfId="135"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Column6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -29018,10 +29043,10 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table32" displayName="Table32" ref="C16:G24" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Column1" headerRowDxfId="133" dataDxfId="132"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Column1" headerRowDxfId="134" dataDxfId="133"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Column3" headerRowDxfId="131" dataDxfId="130"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Column4" headerRowDxfId="129" dataDxfId="128" headerRowCellStyle="Currency" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Column3" headerRowDxfId="132" dataDxfId="131"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Column4" headerRowDxfId="130" dataDxfId="129" headerRowCellStyle="Currency" dataCellStyle="Comma"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Column5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -29032,8 +29057,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table33" displayName="Table33" ref="A32:C40" headerRowCount="0">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Column1" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Column2" headerRowDxfId="127"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Column3" totalsRowFunction="sum" headerRowDxfId="126"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Column2" headerRowDxfId="128"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Column3" totalsRowFunction="sum" headerRowDxfId="127"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -29042,7 +29067,7 @@
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table6" displayName="Table6" ref="A7:C16" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="PAYLOAD" headerRowDxfId="125"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="PAYLOAD" headerRowDxfId="126"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Column1"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Column2"/>
   </tableColumns>
@@ -29053,8 +29078,8 @@
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table7" displayName="Table7" ref="A19:C30" headerRowCount="0">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Column1" totalsRowLabel="Total" dataDxfId="124" totalsRowDxfId="123"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Column2" dataDxfId="122" totalsRowDxfId="121"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Column1" totalsRowLabel="Total" dataDxfId="125" totalsRowDxfId="124"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Column2" dataDxfId="123" totalsRowDxfId="122"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Column3" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -29064,7 +29089,7 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table8" displayName="Table8" ref="A33:B35" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Column1" headerRowDxfId="120" dataDxfId="119"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Column1" headerRowDxfId="121" dataDxfId="120"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -34513,7 +34538,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AJ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -36552,7 +36577,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A3:T40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I31" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -37778,8 +37803,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AI49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -39868,8 +39893,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -40559,8 +40584,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/spreadsheets/1. initial sizing.xlsx
+++ b/spreadsheets/1. initial sizing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\KENYA ONE PROJECT\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490B8DE5-99F2-434C-8A1C-84B107FD896E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923C948B-C4F7-476F-A268-4792458EA2EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Analysis" sheetId="8" r:id="rId1"/>
@@ -8783,24 +8783,6 @@
   </cellStyles>
   <dxfs count="159">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -9149,6 +9131,24 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -28919,51 +28919,51 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-1D00-000003000000}" name="Column3" headerRowDxfId="37"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-1D00-000004000000}" name="Column4" headerRowDxfId="36"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-1D00-000005000000}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{9354BD6D-1930-46B7-8A0C-2934D3CF3026}" name="Column6" headerRowDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{9354BD6D-1930-46B7-8A0C-2934D3CF3026}" name="Column6" headerRowDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF1E000000}" name="Table19" displayName="Table19" ref="E9:F12" headerRowCount="0" totalsRowShown="0" headerRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF1E000000}" name="Table19" displayName="Table19" ref="E9:F12" headerRowCount="0" totalsRowShown="0" headerRowDxfId="34">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1E00-000001000000}" name="Column1" headerRowDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1E00-000002000000}" name="Column2" headerRowDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1E00-000001000000}" name="Column1" headerRowDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1E00-000002000000}" name="Column2" headerRowDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF1F000000}" name="Table25" displayName="Table25" ref="K23:M33" headerRowCount="0" totalsRowShown="0" headerRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF1F000000}" name="Table25" displayName="Table25" ref="K23:M33" headerRowCount="0" totalsRowShown="0" headerRowDxfId="31">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1F00-000001000000}" name="Column1" headerRowDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1F00-000002000000}" name="Column2" headerRowDxfId="30" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1F00-000003000000}" name="Column3" headerRowDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1F00-000001000000}" name="Column1" headerRowDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1F00-000002000000}" name="Column2" headerRowDxfId="29" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1F00-000003000000}" name="Column3" headerRowDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF20000000}" name="Table24" displayName="Table24" ref="A3:E15" headerRowCount="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF20000000}" name="Table24" displayName="Table24" ref="A3:E15" headerRowCount="0" headerRowDxfId="26">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2000-000001000000}" name="Column1" totalsRowLabel="Total" headerRowDxfId="26" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2000-000002000000}" name="Column2" headerRowDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2000-000003000000}" name="Column3" headerRowDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2000-000004000000}" name="Column4" headerRowDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2000-000005000000}" name="Column5" totalsRowFunction="count" headerRowDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2000-000001000000}" name="Column1" totalsRowLabel="Total" headerRowDxfId="25" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2000-000002000000}" name="Column2" headerRowDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2000-000003000000}" name="Column3" headerRowDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2000-000004000000}" name="Column4" headerRowDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2000-000005000000}" name="Column5" totalsRowFunction="count" headerRowDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{00000000-000C-0000-FFFF-FFFF21000000}" name="Table34" displayName="Table34" ref="G3:I7" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{00000000-000C-0000-FFFF-FFFF21000000}" name="Table34" displayName="Table34" ref="G3:I7" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="18">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2100-000001000000}" name="Column1" headerRowDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2100-000002000000}" name="Column2" headerRowDxfId="17" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2100-000001000000}" name="Column1" headerRowDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2100-000002000000}" name="Column2" headerRowDxfId="16" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-2100-000003000000}" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -28973,8 +28973,8 @@
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{00000000-000C-0000-FFFF-FFFF22000000}" name="Table35" displayName="Table35" ref="G10:I13" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2200-000001000000}" name="Column1" headerRowDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2200-000002000000}" name="Column2" headerRowDxfId="14" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2200-000001000000}" name="Column1" headerRowDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2200-000002000000}" name="Column2" headerRowDxfId="13" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-2200-000003000000}" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -28984,8 +28984,8 @@
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{00000000-000C-0000-FFFF-FFFF23000000}" name="Table36" displayName="Table36" ref="K3:M13" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2300-000001000000}" name="Column1" headerRowDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2300-000002000000}" name="Column2" headerRowDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2300-000001000000}" name="Column1" headerRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2300-000002000000}" name="Column2" headerRowDxfId="10"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-2300-000003000000}" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -28995,7 +28995,7 @@
 <file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{00000000-000C-0000-FFFF-FFFF24000000}" name="Table37" displayName="Table37" ref="O4:Q9" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2400-000001000000}" name="Column1" headerRowDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2400-000001000000}" name="Column1" headerRowDxfId="9"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-2400-000002000000}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-2400-000003000000}" name="Column3"/>
   </tableColumns>
@@ -29004,12 +29004,12 @@
 </file>
 
 <file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{00000000-000C-0000-FFFF-FFFF25000000}" name="Table38" displayName="Table38" ref="F4:I30" headerRowCount="0" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{00000000-000C-0000-FFFF-FFFF25000000}" name="Table38" displayName="Table38" ref="F4:I30" headerRowCount="0" totalsRowShown="0" headerRowDxfId="8">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2500-000001000000}" name="Column1" headerRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2500-000002000000}" name="Column2" headerRowDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2500-000003000000}" name="Column3" headerRowDxfId="6" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2500-000004000000}" name="Column4" headerRowDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2500-000001000000}" name="Column1" headerRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2500-000002000000}" name="Column2" headerRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2500-000003000000}" name="Column3" headerRowDxfId="5" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2500-000004000000}" name="Column4" headerRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -29018,8 +29018,8 @@
 <file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{00000000-000C-0000-FFFF-FFFF26000000}" name="Table39" displayName="Table39" ref="A2:C7" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2600-000001000000}" name="Column1" headerRowDxfId="3" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2600-000002000000}" name="Column2" headerRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2600-000001000000}" name="Column1" headerRowDxfId="2" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2600-000002000000}" name="Column2" headerRowDxfId="0"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-2600-000003000000}" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -29361,8 +29361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X77"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -40584,8 +40584,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -41010,7 +41010,7 @@
   <dimension ref="A2:R35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="K30" sqref="K30:M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
